--- a/dairyclimatemodel2/data/nutrient_requirements.xlsx
+++ b/dairyclimatemodel2/data/nutrient_requirements.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="396" windowWidth="23256" windowHeight="12312" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="720" yWindow="390" windowWidth="23250" windowHeight="12315" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">energyrequirements!$A$1:$F$109</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -487,9 +487,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.5546875" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
   </cols>
   <sheetData>
@@ -602,9 +602,9 @@
       <selection sqref="A1:F109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -624,7 +624,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -644,7 +644,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -664,7 +664,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -684,7 +684,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -704,7 +704,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -724,7 +724,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -744,7 +744,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -764,7 +764,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -784,7 +784,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -804,7 +804,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -824,7 +824,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -844,7 +844,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -864,7 +864,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -884,7 +884,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -904,7 +904,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -924,7 +924,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -944,7 +944,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -964,7 +964,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -984,7 +984,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>6</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>6</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>6</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>6</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>6</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>6</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>6</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>6</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>6</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>6</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>6</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>6</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>6</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>6</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>6</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>6</v>
       </c>
@@ -2244,7 +2244,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>6</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>6</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>6</v>
       </c>
@@ -2304,7 +2304,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>6</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>6</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>6</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>6</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>6</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>6</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>6</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>6</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>6</v>
       </c>
@@ -2484,7 +2484,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>6</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>6</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>6</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>6</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>6</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>6</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>6</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>6</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>6</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>6</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>6</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>6</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>6</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>6</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>6</v>
       </c>
@@ -2797,12 +2797,12 @@
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>36.270000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>38.299999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>26.299999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>38.799999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -3056,7 +3056,7 @@
         <v>26.299999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>35.299999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>36.270000000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>38.299999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -3245,7 +3245,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>26.299999999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>38.799999999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>26.299999999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>35.299999999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -3413,7 +3413,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>36.270000000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -3476,7 +3476,7 @@
         <v>38.299999999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>26.299999999999997</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>38.799999999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>26.299999999999997</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>35.299999999999997</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>36.270000000000003</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>38.299999999999997</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>26.299999999999997</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>38.799999999999997</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>26.299999999999997</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>35.299999999999997</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -3917,7 +3917,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -3959,7 +3959,7 @@
         <v>36.270000000000003</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>38.299999999999997</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>26.299999999999997</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>38.799999999999997</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>26.299999999999997</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -4085,7 +4085,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>35.299999999999997</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>6</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>6</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>6</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>36.270000000000003</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>6</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>38.299999999999997</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>6</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>26.299999999999997</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>38.799999999999997</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>6</v>
       </c>
@@ -4316,7 +4316,7 @@
         <v>26.299999999999997</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>6</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>6</v>
       </c>
@@ -4358,7 +4358,7 @@
         <v>35.299999999999997</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>6</v>
       </c>
@@ -4379,7 +4379,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>6</v>
       </c>
@@ -4400,7 +4400,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>6</v>
       </c>
@@ -4421,7 +4421,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>6</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>6</v>
       </c>
@@ -4463,7 +4463,7 @@
         <v>36.270000000000003</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>6</v>
       </c>
@@ -4484,7 +4484,7 @@
         <v>38.299999999999997</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>6</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>6</v>
       </c>
@@ -4526,7 +4526,7 @@
         <v>26.299999999999997</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>6</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>38.799999999999997</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>6</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>26.299999999999997</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>6</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>6</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>35.299999999999997</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>6</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>6</v>
       </c>
@@ -4652,7 +4652,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>6</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>6</v>
       </c>
@@ -4694,7 +4694,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>6</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>36.270000000000003</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>6</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>38.299999999999997</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>6</v>
       </c>
@@ -4757,7 +4757,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>6</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>26.299999999999997</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>6</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>38.799999999999997</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>6</v>
       </c>
@@ -4820,7 +4820,7 @@
         <v>26.299999999999997</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>6</v>
       </c>
@@ -4841,7 +4841,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>6</v>
       </c>
@@ -4862,7 +4862,7 @@
         <v>35.299999999999997</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>6</v>
       </c>
@@ -4883,7 +4883,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>6</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>6</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>6</v>
       </c>
@@ -4946,7 +4946,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>6</v>
       </c>
@@ -4967,7 +4967,7 @@
         <v>36.270000000000003</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>6</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>38.299999999999997</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>6</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>6</v>
       </c>
@@ -5030,7 +5030,7 @@
         <v>26.299999999999997</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>6</v>
       </c>
@@ -5051,7 +5051,7 @@
         <v>38.799999999999997</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>6</v>
       </c>
@@ -5072,7 +5072,7 @@
         <v>26.299999999999997</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>6</v>
       </c>
@@ -5106,12 +5106,12 @@
       <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.5546875" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -5131,7 +5131,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -5231,7 +5231,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -5251,7 +5251,7 @@
         <v>26.67</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -5271,7 +5271,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -5291,7 +5291,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -5351,7 +5351,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -5371,7 +5371,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -5391,7 +5391,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -5411,7 +5411,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -5431,7 +5431,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -5451,7 +5451,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -5471,7 +5471,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>26.67</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -5511,7 +5511,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -5531,7 +5531,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -5551,7 +5551,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -5571,7 +5571,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -5591,7 +5591,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -5631,7 +5631,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -5671,7 +5671,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -5691,7 +5691,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -5711,7 +5711,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -5731,7 +5731,7 @@
         <v>26.67</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -5751,7 +5751,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -5771,7 +5771,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -5791,7 +5791,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -5831,7 +5831,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -5851,7 +5851,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -5911,7 +5911,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -5931,7 +5931,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -5951,7 +5951,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -5971,7 +5971,7 @@
         <v>26.67</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -5991,7 +5991,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -6011,7 +6011,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -6051,7 +6051,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -6071,7 +6071,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -6091,7 +6091,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -6111,7 +6111,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -6131,7 +6131,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -6151,7 +6151,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -6171,7 +6171,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -6191,7 +6191,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -6211,7 +6211,7 @@
         <v>26.67</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -6231,7 +6231,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -6251,7 +6251,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -6271,7 +6271,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -6291,7 +6291,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -6311,7 +6311,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -6331,7 +6331,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -6351,7 +6351,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -6371,7 +6371,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>6</v>
       </c>
@@ -6391,7 +6391,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>6</v>
       </c>
@@ -6411,7 +6411,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>6</v>
       </c>
@@ -6431,7 +6431,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>26.67</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>6</v>
       </c>
@@ -6471,7 +6471,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -6491,7 +6491,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>6</v>
       </c>
@@ -6511,7 +6511,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -6531,7 +6531,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>6</v>
       </c>
@@ -6551,7 +6551,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>6</v>
       </c>
@@ -6571,7 +6571,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>6</v>
       </c>
@@ -6591,7 +6591,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>6</v>
       </c>
@@ -6611,7 +6611,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>6</v>
       </c>
@@ -6631,7 +6631,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>6</v>
       </c>
@@ -6651,7 +6651,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>6</v>
       </c>
@@ -6671,7 +6671,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>6</v>
       </c>
@@ -6691,7 +6691,7 @@
         <v>26.67</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>6</v>
       </c>
@@ -6711,7 +6711,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>6</v>
       </c>
@@ -6731,7 +6731,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>6</v>
       </c>
@@ -6751,7 +6751,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>6</v>
       </c>
@@ -6771,7 +6771,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>6</v>
       </c>
@@ -6791,7 +6791,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>6</v>
       </c>
@@ -6811,7 +6811,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>6</v>
       </c>
@@ -6831,7 +6831,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>6</v>
       </c>
@@ -6851,7 +6851,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>6</v>
       </c>
@@ -6871,7 +6871,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>6</v>
       </c>
@@ -6891,7 +6891,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>6</v>
       </c>
@@ -6911,7 +6911,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>6</v>
       </c>
@@ -6931,7 +6931,7 @@
         <v>26.67</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>6</v>
       </c>
@@ -6951,7 +6951,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>6</v>
       </c>
@@ -6971,7 +6971,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>6</v>
       </c>
@@ -6991,7 +6991,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>6</v>
       </c>
@@ -7011,7 +7011,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>6</v>
       </c>
@@ -7031,7 +7031,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>6</v>
       </c>
@@ -7051,7 +7051,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>6</v>
       </c>
@@ -7071,7 +7071,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>6</v>
       </c>
@@ -7091,7 +7091,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>6</v>
       </c>
@@ -7111,7 +7111,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>6</v>
       </c>
@@ -7131,7 +7131,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>6</v>
       </c>
@@ -7151,7 +7151,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>6</v>
       </c>
@@ -7171,7 +7171,7 @@
         <v>26.67</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>6</v>
       </c>
@@ -7191,7 +7191,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>6</v>
       </c>
@@ -7211,7 +7211,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>6</v>
       </c>
@@ -7231,7 +7231,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>6</v>
       </c>
@@ -7251,7 +7251,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>6</v>
       </c>
@@ -7271,7 +7271,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>6</v>
       </c>
@@ -7304,9 +7304,9 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -7326,7 +7326,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -7346,7 +7346,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -7366,7 +7366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -7386,7 +7386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -7406,7 +7406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -7426,7 +7426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -7446,7 +7446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -7466,7 +7466,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -7486,7 +7486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -7506,7 +7506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -7526,7 +7526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -7546,7 +7546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -7566,7 +7566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -7586,7 +7586,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -7606,7 +7606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -7626,7 +7626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -7646,7 +7646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -7666,7 +7666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -7686,7 +7686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -7706,7 +7706,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -7726,7 +7726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -7746,7 +7746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -7766,7 +7766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -7786,7 +7786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -7806,7 +7806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -7826,7 +7826,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -7846,7 +7846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -7866,7 +7866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -7886,7 +7886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -7906,7 +7906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -7926,7 +7926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -7946,7 +7946,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -7966,7 +7966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -7986,7 +7986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -8006,7 +8006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -8026,7 +8026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -8046,7 +8046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -8066,7 +8066,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -8086,7 +8086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -8106,7 +8106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -8126,7 +8126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -8146,7 +8146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -8166,7 +8166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -8186,7 +8186,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -8206,7 +8206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -8226,7 +8226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -8246,7 +8246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -8266,7 +8266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -8286,7 +8286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -8306,7 +8306,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -8326,7 +8326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -8346,7 +8346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -8366,7 +8366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -8386,7 +8386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -8406,7 +8406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -8426,7 +8426,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -8446,7 +8446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -8466,7 +8466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -8486,7 +8486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -8506,7 +8506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -8526,7 +8526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -8546,7 +8546,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -8566,7 +8566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>6</v>
       </c>
@@ -8586,7 +8586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>6</v>
       </c>
@@ -8606,7 +8606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>6</v>
       </c>
@@ -8626,7 +8626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -8646,7 +8646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>6</v>
       </c>
@@ -8666,7 +8666,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -8686,7 +8686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>6</v>
       </c>
@@ -8706,7 +8706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -8726,7 +8726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>6</v>
       </c>
@@ -8746,7 +8746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>6</v>
       </c>
@@ -8766,7 +8766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>6</v>
       </c>
@@ -8786,7 +8786,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>6</v>
       </c>
@@ -8806,7 +8806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>6</v>
       </c>
@@ -8826,7 +8826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>6</v>
       </c>
@@ -8846,7 +8846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>6</v>
       </c>
@@ -8866,7 +8866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>6</v>
       </c>
@@ -8886,7 +8886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>6</v>
       </c>
@@ -8906,7 +8906,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>6</v>
       </c>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>6</v>
       </c>
@@ -8946,7 +8946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>6</v>
       </c>
@@ -8966,7 +8966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>6</v>
       </c>
@@ -8986,7 +8986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>6</v>
       </c>
@@ -9006,7 +9006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>6</v>
       </c>
@@ -9026,7 +9026,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>6</v>
       </c>
@@ -9046,7 +9046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>6</v>
       </c>
@@ -9066,7 +9066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>6</v>
       </c>
@@ -9086,7 +9086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>6</v>
       </c>
@@ -9106,7 +9106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>6</v>
       </c>
@@ -9126,7 +9126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>6</v>
       </c>
@@ -9146,7 +9146,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>6</v>
       </c>
@@ -9166,7 +9166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>6</v>
       </c>
@@ -9186,7 +9186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>6</v>
       </c>
@@ -9206,7 +9206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>6</v>
       </c>
@@ -9226,7 +9226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>6</v>
       </c>
@@ -9246,7 +9246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>6</v>
       </c>
@@ -9266,7 +9266,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>6</v>
       </c>
@@ -9286,7 +9286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>6</v>
       </c>
@@ -9306,7 +9306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>6</v>
       </c>
@@ -9326,7 +9326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>6</v>
       </c>
@@ -9346,7 +9346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>6</v>
       </c>
@@ -9366,7 +9366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>6</v>
       </c>
@@ -9386,7 +9386,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>6</v>
       </c>
@@ -9406,7 +9406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>6</v>
       </c>
@@ -9426,7 +9426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>6</v>
       </c>
@@ -9446,7 +9446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>6</v>
       </c>
@@ -9466,7 +9466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>6</v>
       </c>
@@ -9499,12 +9499,12 @@
       <selection activeCell="F98" sqref="F98:F109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -9524,7 +9524,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -9544,7 +9544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -9564,7 +9564,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -9584,7 +9584,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -9604,7 +9604,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -9624,7 +9624,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -9664,7 +9664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -9684,7 +9684,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -9704,7 +9704,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -9724,7 +9724,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -9744,7 +9744,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -9764,7 +9764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -9784,7 +9784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -9804,7 +9804,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -9824,7 +9824,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -9844,7 +9844,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -9864,7 +9864,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -9884,7 +9884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -9904,7 +9904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -9924,7 +9924,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -9944,7 +9944,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -9964,7 +9964,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -9984,7 +9984,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -10004,7 +10004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -10024,7 +10024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -10044,7 +10044,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -10064,7 +10064,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -10084,7 +10084,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -10104,7 +10104,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -10144,7 +10144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -10164,7 +10164,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -10184,7 +10184,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -10204,7 +10204,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -10224,7 +10224,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -10244,7 +10244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -10264,7 +10264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -10284,7 +10284,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -10304,7 +10304,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -10324,7 +10324,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -10344,7 +10344,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -10364,7 +10364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -10384,7 +10384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -10404,7 +10404,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -10424,7 +10424,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -10444,7 +10444,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -10464,7 +10464,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -10484,7 +10484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -10504,7 +10504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -10524,7 +10524,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -10544,7 +10544,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -10564,7 +10564,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -10584,7 +10584,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -10604,7 +10604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -10624,7 +10624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -10644,7 +10644,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -10664,7 +10664,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -10684,7 +10684,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -10704,7 +10704,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -10724,7 +10724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -10744,7 +10744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -10764,7 +10764,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>6</v>
       </c>
@@ -10784,7 +10784,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>6</v>
       </c>
@@ -10804,7 +10804,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>6</v>
       </c>
@@ -10824,7 +10824,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>6</v>
       </c>
@@ -10864,7 +10864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -10884,7 +10884,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>6</v>
       </c>
@@ -10904,7 +10904,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -10924,7 +10924,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>6</v>
       </c>
@@ -10944,7 +10944,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>6</v>
       </c>
@@ -10964,7 +10964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>6</v>
       </c>
@@ -10984,7 +10984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>6</v>
       </c>
@@ -11004,7 +11004,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>6</v>
       </c>
@@ -11024,7 +11024,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>6</v>
       </c>
@@ -11044,7 +11044,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>6</v>
       </c>
@@ -11064,7 +11064,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>6</v>
       </c>
@@ -11084,7 +11084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>6</v>
       </c>
@@ -11104,7 +11104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>6</v>
       </c>
@@ -11124,7 +11124,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>6</v>
       </c>
@@ -11144,7 +11144,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>6</v>
       </c>
@@ -11164,7 +11164,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>6</v>
       </c>
@@ -11184,7 +11184,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>6</v>
       </c>
@@ -11204,7 +11204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>6</v>
       </c>
@@ -11224,7 +11224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>6</v>
       </c>
@@ -11244,7 +11244,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>6</v>
       </c>
@@ -11264,7 +11264,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>6</v>
       </c>
@@ -11284,7 +11284,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>6</v>
       </c>
@@ -11304,7 +11304,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>6</v>
       </c>
@@ -11324,7 +11324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>6</v>
       </c>
@@ -11344,7 +11344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>6</v>
       </c>
@@ -11364,7 +11364,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>6</v>
       </c>
@@ -11384,7 +11384,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>6</v>
       </c>
@@ -11404,7 +11404,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>6</v>
       </c>
@@ -11424,7 +11424,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>6</v>
       </c>
@@ -11444,7 +11444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>6</v>
       </c>
@@ -11464,7 +11464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>6</v>
       </c>
@@ -11484,7 +11484,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>6</v>
       </c>
@@ -11504,7 +11504,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>6</v>
       </c>
@@ -11524,7 +11524,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>6</v>
       </c>
@@ -11544,7 +11544,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>6</v>
       </c>
@@ -11564,7 +11564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>6</v>
       </c>
@@ -11584,7 +11584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>6</v>
       </c>
@@ -11604,7 +11604,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>6</v>
       </c>
@@ -11624,7 +11624,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>6</v>
       </c>
@@ -11644,7 +11644,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>6</v>
       </c>
@@ -11664,7 +11664,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>6</v>
       </c>
@@ -11697,12 +11697,12 @@
       <selection activeCell="F98" sqref="F98:F109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -11722,7 +11722,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -11742,7 +11742,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -11762,7 +11762,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -11782,7 +11782,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -11802,7 +11802,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -11822,7 +11822,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -11842,7 +11842,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -11862,7 +11862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -11882,7 +11882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -11902,7 +11902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -11922,7 +11922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -11942,7 +11942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -11962,7 +11962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -11982,7 +11982,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -12002,7 +12002,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -12022,7 +12022,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -12042,7 +12042,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -12062,7 +12062,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -12082,7 +12082,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -12102,7 +12102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -12122,7 +12122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -12142,7 +12142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -12162,7 +12162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -12182,7 +12182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -12202,7 +12202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -12222,7 +12222,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -12242,7 +12242,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -12262,7 +12262,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -12282,7 +12282,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -12302,7 +12302,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -12322,7 +12322,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -12342,7 +12342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -12362,7 +12362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -12382,7 +12382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -12402,7 +12402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -12422,7 +12422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -12442,7 +12442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -12462,7 +12462,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -12482,7 +12482,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -12502,7 +12502,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -12522,7 +12522,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -12542,7 +12542,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -12562,7 +12562,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -12582,7 +12582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -12602,7 +12602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -12622,7 +12622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -12642,7 +12642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -12662,7 +12662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -12682,7 +12682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -12702,7 +12702,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -12722,7 +12722,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -12742,7 +12742,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -12762,7 +12762,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -12782,7 +12782,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -12802,7 +12802,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -12822,7 +12822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -12842,7 +12842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -12862,7 +12862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -12882,7 +12882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -12902,7 +12902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -12922,7 +12922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -12942,7 +12942,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -12962,7 +12962,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>6</v>
       </c>
@@ -12982,7 +12982,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>6</v>
       </c>
@@ -13002,7 +13002,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>6</v>
       </c>
@@ -13022,7 +13022,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -13042,7 +13042,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>6</v>
       </c>
@@ -13062,7 +13062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -13082,7 +13082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>6</v>
       </c>
@@ -13102,7 +13102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -13122,7 +13122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>6</v>
       </c>
@@ -13142,7 +13142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>6</v>
       </c>
@@ -13162,7 +13162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>6</v>
       </c>
@@ -13182,7 +13182,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>6</v>
       </c>
@@ -13202,7 +13202,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>6</v>
       </c>
@@ -13222,7 +13222,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>6</v>
       </c>
@@ -13242,7 +13242,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>6</v>
       </c>
@@ -13262,7 +13262,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>6</v>
       </c>
@@ -13282,7 +13282,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>6</v>
       </c>
@@ -13302,7 +13302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>6</v>
       </c>
@@ -13322,7 +13322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>6</v>
       </c>
@@ -13342,7 +13342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>6</v>
       </c>
@@ -13362,7 +13362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>6</v>
       </c>
@@ -13382,7 +13382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>6</v>
       </c>
@@ -13402,7 +13402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>6</v>
       </c>
@@ -13422,7 +13422,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>6</v>
       </c>
@@ -13442,7 +13442,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>6</v>
       </c>
@@ -13462,7 +13462,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>6</v>
       </c>
@@ -13482,7 +13482,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>6</v>
       </c>
@@ -13502,7 +13502,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>6</v>
       </c>
@@ -13522,7 +13522,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>6</v>
       </c>
@@ -13542,7 +13542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>6</v>
       </c>
@@ -13562,7 +13562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>6</v>
       </c>
@@ -13582,7 +13582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>6</v>
       </c>
@@ -13602,7 +13602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>6</v>
       </c>
@@ -13622,7 +13622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>6</v>
       </c>
@@ -13642,7 +13642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>6</v>
       </c>
@@ -13662,7 +13662,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>6</v>
       </c>
@@ -13682,7 +13682,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>6</v>
       </c>
@@ -13702,7 +13702,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>6</v>
       </c>
@@ -13722,7 +13722,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>6</v>
       </c>
@@ -13742,7 +13742,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>6</v>
       </c>
@@ -13762,7 +13762,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>6</v>
       </c>
@@ -13782,7 +13782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>6</v>
       </c>
@@ -13802,7 +13802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>6</v>
       </c>
@@ -13822,7 +13822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>6</v>
       </c>
@@ -13842,7 +13842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>6</v>
       </c>
@@ -13862,7 +13862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>6</v>
       </c>
@@ -13895,12 +13895,12 @@
       <selection activeCell="A2" sqref="A2:F109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -13920,7 +13920,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -13940,7 +13940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -13960,7 +13960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -13980,7 +13980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -14000,7 +14000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -14020,7 +14020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -14040,7 +14040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -14060,7 +14060,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -14080,7 +14080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -14100,7 +14100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -14120,7 +14120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -14140,7 +14140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -14160,7 +14160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -14180,7 +14180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -14200,7 +14200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -14220,7 +14220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -14240,7 +14240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -14260,7 +14260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -14280,7 +14280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -14300,7 +14300,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -14320,7 +14320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -14340,7 +14340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -14360,7 +14360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -14380,7 +14380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -14400,7 +14400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -14420,7 +14420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -14440,7 +14440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -14460,7 +14460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -14480,7 +14480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -14500,7 +14500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -14520,7 +14520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -14540,7 +14540,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -14560,7 +14560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -14580,7 +14580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -14600,7 +14600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -14620,7 +14620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -14640,7 +14640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -14660,7 +14660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -14680,7 +14680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -14700,7 +14700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -14720,7 +14720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -14740,7 +14740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -14760,7 +14760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -14780,7 +14780,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -14800,7 +14800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -14820,7 +14820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -14840,7 +14840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -14860,7 +14860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -14880,7 +14880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -14900,7 +14900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -14920,7 +14920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -14940,7 +14940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -14960,7 +14960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -14980,7 +14980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -15000,7 +15000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -15020,7 +15020,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -15040,7 +15040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -15060,7 +15060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -15080,7 +15080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -15100,7 +15100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -15120,7 +15120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -15140,7 +15140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -15160,7 +15160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>6</v>
       </c>
@@ -15180,7 +15180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>6</v>
       </c>
@@ -15200,7 +15200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>6</v>
       </c>
@@ -15220,7 +15220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -15240,7 +15240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>6</v>
       </c>
@@ -15260,7 +15260,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -15280,7 +15280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>6</v>
       </c>
@@ -15300,7 +15300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -15320,7 +15320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>6</v>
       </c>
@@ -15340,7 +15340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>6</v>
       </c>
@@ -15360,7 +15360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>6</v>
       </c>
@@ -15380,7 +15380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>6</v>
       </c>
@@ -15400,7 +15400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>6</v>
       </c>
@@ -15420,7 +15420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>6</v>
       </c>
@@ -15440,7 +15440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>6</v>
       </c>
@@ -15460,7 +15460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>6</v>
       </c>
@@ -15480,7 +15480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>6</v>
       </c>
@@ -15500,7 +15500,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>6</v>
       </c>
@@ -15520,7 +15520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>6</v>
       </c>
@@ -15540,7 +15540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>6</v>
       </c>
@@ -15560,7 +15560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>6</v>
       </c>
@@ -15580,7 +15580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>6</v>
       </c>
@@ -15600,7 +15600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>6</v>
       </c>
@@ -15620,7 +15620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>6</v>
       </c>
@@ -15640,7 +15640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>6</v>
       </c>
@@ -15660,7 +15660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>6</v>
       </c>
@@ -15680,7 +15680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>6</v>
       </c>
@@ -15700,7 +15700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>6</v>
       </c>
@@ -15720,7 +15720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>6</v>
       </c>
@@ -15740,7 +15740,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>6</v>
       </c>
@@ -15760,7 +15760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>6</v>
       </c>
@@ -15780,7 +15780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>6</v>
       </c>
@@ -15800,7 +15800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>6</v>
       </c>
@@ -15820,7 +15820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>6</v>
       </c>
@@ -15840,7 +15840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>6</v>
       </c>
@@ -15860,7 +15860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>6</v>
       </c>
@@ -15880,7 +15880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>6</v>
       </c>
@@ -15900,7 +15900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>6</v>
       </c>
@@ -15920,7 +15920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>6</v>
       </c>
@@ -15940,7 +15940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>6</v>
       </c>
@@ -15960,7 +15960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>6</v>
       </c>
@@ -15980,7 +15980,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>6</v>
       </c>
@@ -16000,7 +16000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>6</v>
       </c>
@@ -16020,7 +16020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>6</v>
       </c>
@@ -16040,7 +16040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>6</v>
       </c>
@@ -16060,7 +16060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>6</v>
       </c>
@@ -16089,16 +16089,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -16118,7 +16118,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -16138,7 +16138,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -16158,7 +16158,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -16178,7 +16178,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -16198,7 +16198,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -16218,7 +16218,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -16238,7 +16238,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -16258,7 +16258,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -16278,7 +16278,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -16298,7 +16298,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -16318,7 +16318,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -16338,7 +16338,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -16358,7 +16358,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -16378,7 +16378,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -16398,7 +16398,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -16418,7 +16418,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -16438,7 +16438,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -16458,7 +16458,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -16478,7 +16478,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -16498,7 +16498,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -16518,7 +16518,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -16538,7 +16538,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -16558,7 +16558,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -16578,7 +16578,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -16598,7 +16598,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -16618,7 +16618,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -16638,7 +16638,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -16658,7 +16658,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -16678,7 +16678,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -16698,7 +16698,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -16718,7 +16718,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -16738,7 +16738,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -16758,7 +16758,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -16778,7 +16778,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -16798,7 +16798,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -16818,7 +16818,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -16838,7 +16838,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -16858,7 +16858,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -16878,7 +16878,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -16898,7 +16898,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -16918,7 +16918,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -16938,7 +16938,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -16958,7 +16958,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -16978,7 +16978,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -16998,7 +16998,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -17018,7 +17018,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -17038,7 +17038,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -17058,7 +17058,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -17078,7 +17078,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -17098,7 +17098,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -17118,7 +17118,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -17138,7 +17138,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -17158,7 +17158,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -17178,7 +17178,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -17198,7 +17198,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -17218,7 +17218,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -17238,7 +17238,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -17258,7 +17258,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -17278,7 +17278,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -17298,7 +17298,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -17318,7 +17318,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -17338,7 +17338,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -17358,7 +17358,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>6</v>
       </c>
@@ -17378,7 +17378,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>6</v>
       </c>
@@ -17398,7 +17398,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>6</v>
       </c>
@@ -17418,7 +17418,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -17438,7 +17438,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>6</v>
       </c>
@@ -17458,7 +17458,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -17478,7 +17478,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>6</v>
       </c>
@@ -17498,7 +17498,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -17518,7 +17518,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>6</v>
       </c>
@@ -17538,7 +17538,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>6</v>
       </c>
@@ -17558,7 +17558,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>6</v>
       </c>
@@ -17578,7 +17578,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>6</v>
       </c>
@@ -17598,7 +17598,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>6</v>
       </c>
@@ -17618,7 +17618,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>6</v>
       </c>
@@ -17638,7 +17638,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>6</v>
       </c>
@@ -17658,7 +17658,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>6</v>
       </c>
@@ -17678,7 +17678,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>6</v>
       </c>
@@ -17698,7 +17698,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>6</v>
       </c>
@@ -17718,7 +17718,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>6</v>
       </c>
@@ -17738,7 +17738,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>6</v>
       </c>
@@ -17758,7 +17758,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>6</v>
       </c>
@@ -17778,7 +17778,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>6</v>
       </c>
@@ -17798,7 +17798,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>6</v>
       </c>
@@ -17818,7 +17818,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>6</v>
       </c>
@@ -17838,7 +17838,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>6</v>
       </c>
@@ -17858,7 +17858,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>6</v>
       </c>
@@ -17878,7 +17878,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>6</v>
       </c>
@@ -17898,7 +17898,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>6</v>
       </c>
@@ -17918,7 +17918,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>6</v>
       </c>
@@ -17938,7 +17938,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>6</v>
       </c>
@@ -17958,7 +17958,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>6</v>
       </c>
@@ -17978,7 +17978,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>6</v>
       </c>
@@ -17998,7 +17998,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>6</v>
       </c>
@@ -18018,7 +18018,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>6</v>
       </c>
@@ -18038,7 +18038,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>6</v>
       </c>
@@ -18058,7 +18058,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>6</v>
       </c>
@@ -18078,7 +18078,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>6</v>
       </c>
@@ -18098,7 +18098,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>6</v>
       </c>
@@ -18118,7 +18118,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>6</v>
       </c>
@@ -18138,7 +18138,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>6</v>
       </c>
@@ -18158,7 +18158,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>6</v>
       </c>
@@ -18178,7 +18178,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>6</v>
       </c>
@@ -18198,7 +18198,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>6</v>
       </c>
@@ -18218,7 +18218,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>6</v>
       </c>
@@ -18238,7 +18238,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>6</v>
       </c>
@@ -18258,7 +18258,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>6</v>
       </c>
@@ -18287,13 +18287,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:F109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -18313,7 +18313,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -18333,7 +18333,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -18353,7 +18353,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -18373,7 +18373,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -18393,7 +18393,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -18413,7 +18413,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -18433,7 +18433,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -18453,7 +18453,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -18473,7 +18473,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -18493,7 +18493,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -18513,7 +18513,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -18533,7 +18533,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -18553,7 +18553,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -18573,7 +18573,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -18593,7 +18593,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -18613,7 +18613,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -18633,7 +18633,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -18653,7 +18653,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -18673,7 +18673,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -18693,7 +18693,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -18713,7 +18713,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -18733,7 +18733,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -18753,7 +18753,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -18773,7 +18773,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -18793,7 +18793,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -18813,7 +18813,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -18833,7 +18833,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -18853,7 +18853,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -18873,7 +18873,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -18893,7 +18893,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -18913,7 +18913,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -18933,7 +18933,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -18953,7 +18953,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -18973,7 +18973,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -18993,7 +18993,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -19013,7 +19013,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -19033,7 +19033,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -19053,7 +19053,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -19073,7 +19073,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -19093,7 +19093,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -19113,7 +19113,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -19133,7 +19133,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -19153,7 +19153,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -19173,7 +19173,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -19193,7 +19193,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -19213,7 +19213,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -19233,7 +19233,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -19253,7 +19253,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -19273,7 +19273,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -19293,7 +19293,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -19313,7 +19313,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -19333,7 +19333,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -19353,7 +19353,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -19373,7 +19373,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -19393,7 +19393,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -19413,7 +19413,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -19433,7 +19433,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -19453,7 +19453,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -19473,7 +19473,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -19493,7 +19493,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -19513,7 +19513,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -19533,7 +19533,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -19553,7 +19553,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>6</v>
       </c>
@@ -19573,7 +19573,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>6</v>
       </c>
@@ -19593,7 +19593,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>6</v>
       </c>
@@ -19613,7 +19613,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -19633,7 +19633,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>6</v>
       </c>
@@ -19653,7 +19653,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -19673,7 +19673,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>6</v>
       </c>
@@ -19693,7 +19693,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -19713,7 +19713,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>6</v>
       </c>
@@ -19733,7 +19733,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>6</v>
       </c>
@@ -19753,7 +19753,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>6</v>
       </c>
@@ -19773,7 +19773,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>6</v>
       </c>
@@ -19793,7 +19793,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>6</v>
       </c>
@@ -19813,7 +19813,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>6</v>
       </c>
@@ -19833,7 +19833,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>6</v>
       </c>
@@ -19853,7 +19853,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>6</v>
       </c>
@@ -19873,7 +19873,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>6</v>
       </c>
@@ -19893,7 +19893,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>6</v>
       </c>
@@ -19913,7 +19913,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>6</v>
       </c>
@@ -19933,7 +19933,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>6</v>
       </c>
@@ -19953,7 +19953,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>6</v>
       </c>
@@ -19973,7 +19973,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>6</v>
       </c>
@@ -19993,7 +19993,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>6</v>
       </c>
@@ -20013,7 +20013,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>6</v>
       </c>
@@ -20033,7 +20033,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>6</v>
       </c>
@@ -20053,7 +20053,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>6</v>
       </c>
@@ -20073,7 +20073,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>6</v>
       </c>
@@ -20093,7 +20093,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>6</v>
       </c>
@@ -20113,7 +20113,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>6</v>
       </c>
@@ -20133,7 +20133,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>6</v>
       </c>
@@ -20153,7 +20153,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>6</v>
       </c>
@@ -20173,7 +20173,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>6</v>
       </c>
@@ -20193,7 +20193,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>6</v>
       </c>
@@ -20213,7 +20213,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>6</v>
       </c>
@@ -20233,7 +20233,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>6</v>
       </c>
@@ -20253,7 +20253,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>6</v>
       </c>
@@ -20273,7 +20273,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>6</v>
       </c>
@@ -20293,7 +20293,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>6</v>
       </c>
@@ -20313,7 +20313,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>6</v>
       </c>
@@ -20333,7 +20333,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>6</v>
       </c>
@@ -20353,7 +20353,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>6</v>
       </c>
@@ -20373,7 +20373,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>6</v>
       </c>
@@ -20393,7 +20393,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>6</v>
       </c>
@@ -20413,7 +20413,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>6</v>
       </c>
@@ -20433,7 +20433,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>6</v>
       </c>
@@ -20453,7 +20453,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>6</v>
       </c>
